--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -10542,19 +10542,19 @@
         <v>45923</v>
       </c>
       <c r="B251" t="n">
-        <v>255.875</v>
+        <v>255.8800048828125</v>
       </c>
       <c r="C251" t="n">
         <v>257.3399963378906</v>
       </c>
       <c r="D251" t="n">
-        <v>253.5899963378906</v>
+        <v>253.5800018310547</v>
       </c>
       <c r="E251" t="n">
         <v>254.4299926757812</v>
       </c>
       <c r="F251" t="n">
-        <v>59999304</v>
+        <v>60232300</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -10569,7 +10569,7 @@
         <v>0.124220969246541</v>
       </c>
       <c r="K251" t="n">
-        <v>60358705.2</v>
+        <v>60370355</v>
       </c>
       <c r="L251" t="n">
         <v>237.1504997253418</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59999304</v>
+        <v>60232300</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
